--- a/resources/experiment 2/metrics/MAPE/incidence/Ceguera (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Ceguera (INC).xlsx
@@ -465,10 +465,10 @@
         <v>343415789371543.6</v>
       </c>
       <c r="C2" t="n">
-        <v>343415789371543.6</v>
+        <v>343415789371543.8</v>
       </c>
       <c r="D2" t="n">
-        <v>343415789371543.6</v>
+        <v>343415789371543.8</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7811600246370.396</v>
+        <v>2275332136062.558</v>
       </c>
       <c r="C3" t="n">
-        <v>7811600246370.396</v>
+        <v>817951067457.6162</v>
       </c>
       <c r="D3" t="n">
-        <v>7811600246370.396</v>
+        <v>59720165437110.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9477403500922.119</v>
+        <v>642405352252.6123</v>
       </c>
       <c r="C4" t="n">
-        <v>9696058479934.092</v>
+        <v>858794523537.6841</v>
       </c>
       <c r="D4" t="n">
-        <v>9696058479934.092</v>
+        <v>11630917956572.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>414428925724557.6</v>
+        <v>5718313024229.929</v>
       </c>
       <c r="C5" t="n">
-        <v>414428925724557.6</v>
+        <v>17710697264041.78</v>
       </c>
       <c r="D5" t="n">
-        <v>414428925724557.6</v>
+        <v>41496445988537.48</v>
       </c>
     </row>
   </sheetData>
